--- a/doc/const_stations.xlsx
+++ b/doc/const_stations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18120" windowHeight="5550"/>
+    <workbookView windowWidth="15210" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>艾尔组装车间 I</t>
   </si>
   <si>
-    <t>[1,1,1]</t>
+    <t>[1,1,1,1]</t>
   </si>
   <si>
     <t>艾尔帝国战时所建立的前线组装车间</t>
@@ -423,11 +423,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>

--- a/doc/const_stations.xlsx
+++ b/doc/const_stations.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="15210" windowHeight="5550"/>
+    <workbookView xWindow="220" yWindow="3780" windowWidth="19240" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>编号</t>
   </si>
@@ -43,25 +47,46 @@
     <t>[1,1,1,1]</t>
   </si>
   <si>
+    <t>艾尔组装车间 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1,3,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>艾尔帝国战时所建立的前线组装车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾尔帝国战时所建立的前线组装车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[1,2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>station_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -83,23 +108,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -111,14 +121,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -417,6 +424,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -449,21 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -494,49 +501,78 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/const_stations.xlsx
+++ b/doc/const_stations.xlsx
@@ -44,17 +44,10 @@
     <t>艾尔组装车间 I</t>
   </si>
   <si>
-    <t>[1,1,1,1]</t>
-  </si>
-  <si>
     <t>艾尔组装车间 II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,1,3,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>艾尔帝国战时所建立的前线组装车间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +65,14 @@
   </si>
   <si>
     <t>station_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,1,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,4,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +462,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -498,30 +499,30 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/const_stations.xlsx
+++ b/doc/const_stations.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="3780" windowWidth="19240" windowHeight="13520"/>
+    <workbookView windowWidth="19080" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>编号</t>
   </si>
@@ -44,50 +40,37 @@
     <t>艾尔组装车间 I</t>
   </si>
   <si>
+    <t>[1001,2001,30001,1]</t>
+  </si>
+  <si>
+    <t>艾尔帝国战时所建立的前线组装车间</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>station_1002</t>
+  </si>
+  <si>
     <t>艾尔组装车间 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾尔帝国战时所建立的前线组装车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾尔帝国战时所建立的前线组装车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>station_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0,1,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0,4,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,2001,30002,1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -109,8 +92,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -122,11 +120,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -425,7 +426,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -458,20 +458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -499,81 +500,69 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/const_stations.xlsx
+++ b/doc/const_stations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7830"/>
+    <workbookView windowWidth="17220" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>编号</t>
   </si>
@@ -28,6 +28,9 @@
     <t>位置</t>
   </si>
   <si>
+    <t>所属NPC军团</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -37,13 +40,16 @@
     <t>station_1001</t>
   </si>
   <si>
-    <t>艾尔组装车间 I</t>
+    <t>帝国学院教学总部</t>
   </si>
   <si>
     <t>[1001,2001,30001,1]</t>
   </si>
   <si>
-    <t>艾尔帝国战时所建立的前线组装车间</t>
+    <t>legion_1007</t>
+  </si>
+  <si>
+    <t>艾尔帝国学院的总部</t>
   </si>
   <si>
     <t>[1,2,3,4]</t>
@@ -52,10 +58,13 @@
     <t>station_1002</t>
   </si>
   <si>
-    <t>艾尔组装车间 II</t>
+    <t>帝国学院训练中心 I</t>
   </si>
   <si>
     <t>[1001,2001,30002,1]</t>
+  </si>
+  <si>
+    <t>帝国学院训练中心</t>
   </si>
 </sst>
 </file>
@@ -63,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -460,22 +469,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="18.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="24.6666666666667" customWidth="1"/>
+    <col min="3" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="24.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,39 +500,48 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
